--- a/biology/Botanique/Chaetophoraceae/Chaetophoraceae.xlsx
+++ b/biology/Botanique/Chaetophoraceae/Chaetophoraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Chaetophoraceae regroupe des algues vertes de l'ordre des Chaetophorales. 
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Chaetophora, composé du préfixe chaet- « poil, soie », et du suffixe -phor « qui porte », littéralement « porteur de poils ».
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (29 avril 2013)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (29 avril 2013) :
 Arthrochaete Rosenvinge
 Caespitella Vischer
 Cedercreutziella Vischer
@@ -602,7 +618,7 @@
 Uronema Lagerheim
 Zoddaea Borzì
 Zygomitus Bornet &amp; Flahault
-Selon ITIS      (29 avril 2013)[2] :
+Selon ITIS      (29 avril 2013) :
 Acrochaete N. Pringsheim, 1863
 Aphanochaete A. Braun, 1851
 Bolbocoleon N. Pringsheim, 1863
@@ -636,7 +652,7 @@
 Thamniochaete Gay, 1893
 Ulvella P. L. Crouan &amp; H. M. Crouan, 1859
 Uronema Lagerheim, 1887
-Selon World Register of Marine Species                               (29 avril 2013)[3] :
+Selon World Register of Marine Species                               (29 avril 2013) :
 Acroblaste Reinsch, 1879
 Arthrochaete Rosenvinge, 1898
 Caespitella Vischer, 1933
